--- a/result/Production_Plan_Report.xlsx
+++ b/result/Production_Plan_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="50">
   <si>
     <t>Line</t>
   </si>
@@ -162,6 +162,9 @@
   <si>
     <t>245F042</t>
   </si>
+  <si>
+    <t>245F040</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,13 +226,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,19 +290,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -673,17 +685,17 @@
       <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>44</v>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>45</v>
@@ -700,29 +712,29 @@
       <c r="L2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>46</v>
+      <c r="M2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -730,59 +742,59 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="D3" s="6">
-        <v>1588.652482269503</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1776.201733648542</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1963.75098502758</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="D3" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="I3" s="6">
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="J3" s="6">
+      <c r="G3" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="K3" s="6">
+      <c r="H3" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>1529.601893792821</v>
-      </c>
-      <c r="N3" s="6">
-        <v>1529.601893792821</v>
-      </c>
-      <c r="O3" s="6">
-        <v>1710.179895143362</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1890.757896493903</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>2071.335897844445</v>
-      </c>
-      <c r="R3" s="6">
-        <v>2251.913899194986</v>
-      </c>
-      <c r="S3" s="6">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6">
-        <v>2432.491900545528</v>
+      <c r="I3" s="5">
+        <v>2798.277982779828</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3042.230422304223</v>
+      </c>
+      <c r="K3" s="5">
+        <v>3286.182861828619</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>3530.135301353014</v>
+      </c>
+      <c r="N3" s="5">
+        <v>3774.08774087741</v>
+      </c>
+      <c r="O3" s="5">
+        <v>4018.040180401805</v>
+      </c>
+      <c r="P3" s="5">
+        <v>4261.9926199262</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>4391.143911439115</v>
+      </c>
+      <c r="R3" s="5">
+        <v>4520.29520295203</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>4649.446494464945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -790,59 +802,59 @@
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="C4" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="H4" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H4" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="L4" s="7">
+      <c r="I4" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="M4" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="R4" s="7">
+      <c r="J4" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="S4" s="7">
+      <c r="K4" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="T4" s="7">
-        <v>0.5088888888888889</v>
+      <c r="L4" s="6">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0.7200000000000001</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0.7200000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -854,55 +866,55 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L5" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O5" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P5" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R5" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S5" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T5" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -910,59 +922,59 @@
       <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="C6" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="H6" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H6" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="I6" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="M6" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="R6" s="7">
+      <c r="J6" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="S6" s="7">
+      <c r="K6" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="T6" s="7">
-        <v>0.5088888888888889</v>
+      <c r="L6" s="6">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0.7200000000000001</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0.7200000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -981,11 +993,11 @@
       <c r="E7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>44</v>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>45</v>
@@ -1014,17 +1026,17 @@
       <c r="P7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>44</v>
+      <c r="Q7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1032,59 +1044,59 @@
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1776.201733648542</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1963.75098502758</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="I8" s="6">
+      <c r="G8" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="J8" s="6">
+      <c r="H8" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="K8" s="6">
+      <c r="I8" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
+      <c r="J8" s="5">
         <v>2798.277982779828</v>
       </c>
-      <c r="N8" s="6">
+      <c r="K8" s="5">
         <v>3042.230422304223</v>
       </c>
-      <c r="O8" s="6">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
         <v>3286.182861828619</v>
       </c>
-      <c r="P8" s="6">
+      <c r="N8" s="5">
         <v>3530.135301353014</v>
       </c>
-      <c r="Q8" s="6">
-        <v>1588.652482269503</v>
-      </c>
-      <c r="R8" s="6">
-        <v>1588.652482269503</v>
-      </c>
-      <c r="S8" s="6">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6">
-        <v>1776.201733648542</v>
+      <c r="O8" s="5">
+        <v>3774.08774087741</v>
+      </c>
+      <c r="P8" s="5">
+        <v>4018.040180401804</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>4261.9926199262</v>
+      </c>
+      <c r="R8" s="5">
+        <v>4391.143911439115</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>4520.29520295203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1092,59 +1104,59 @@
       <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="C9" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I9" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H9" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="J9" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="M9" s="7">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="N9" s="7">
+      <c r="K9" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="O9" s="7">
+      <c r="L9" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="P9" s="7">
+      <c r="M9" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N9" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="Q9" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="T9" s="7">
-        <v>0.3577777777777778</v>
+      <c r="O9" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1162,49 +1174,49 @@
         <v>2</v>
       </c>
       <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="I10" s="2">
         <v>3</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
       <c r="J10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L10" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N10" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O10" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P10" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R10" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S10" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="T10" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1212,59 +1224,59 @@
       <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="C11" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I11" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H11" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="J11" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="M11" s="7">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="N11" s="7">
+      <c r="K11" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="O11" s="7">
+      <c r="L11" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="P11" s="7">
+      <c r="M11" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N11" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="Q11" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="T11" s="7">
-        <v>0.3577777777777778</v>
+      <c r="O11" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1280,8 +1292,8 @@
       <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>44</v>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>45</v>
@@ -1325,8 +1337,8 @@
       <c r="S12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T12" s="4" t="s">
-        <v>45</v>
+      <c r="T12" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1334,59 +1346,59 @@
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>2798.277982779828</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>3042.230422304223</v>
       </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
         <v>3286.182861828619</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>3530.135301353014</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>3774.08774087741</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>4018.040180401804</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>4261.9926199262</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="5">
         <v>4391.143911439115</v>
       </c>
-      <c r="S13" s="6">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6">
-        <v>4520.29520295203</v>
+      <c r="S13" s="5">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
+        <v>1148.089933711474</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1394,59 +1406,59 @@
       <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="C14" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I14" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="6">
         <v>0.66</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="6">
         <v>0.68</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="T14" s="7">
-        <v>0.7000000000000001</v>
+      <c r="T14" s="6">
+        <v>0.32</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1461,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -1506,7 +1518,7 @@
         <v>12</v>
       </c>
       <c r="T15" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1514,59 +1526,59 @@
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="C16" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I16" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="6">
         <v>0.66</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="6">
         <v>0.68</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="T16" s="7">
-        <v>0.7000000000000001</v>
+      <c r="T16" s="6">
+        <v>0.32</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1600,20 +1612,20 @@
       <c r="J17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>45</v>
+      <c r="K17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>44</v>
@@ -1636,59 +1648,59 @@
       <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
         <v>1776.201733648542</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>1963.75098502758</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>2151.300236406619</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>2338.849487785658</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>2526.398739164697</v>
       </c>
-      <c r="K18" s="6">
-        <v>2066.420664206642</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>2066.420664206642</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2310.373103731038</v>
-      </c>
-      <c r="O18" s="6">
-        <v>2554.325543255432</v>
-      </c>
-      <c r="P18" s="6">
-        <v>1588.652482269503</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>1588.652482269503</v>
-      </c>
-      <c r="R18" s="6">
-        <v>1776.201733648542</v>
-      </c>
-      <c r="S18" s="6">
-        <v>0</v>
-      </c>
-      <c r="T18" s="6">
-        <v>1963.75098502758</v>
+      <c r="K18" s="5">
+        <v>2713.947990543735</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>2901.497241922774</v>
+      </c>
+      <c r="N18" s="5">
+        <v>3089.046493301812</v>
+      </c>
+      <c r="O18" s="5">
+        <v>3276.595744680851</v>
+      </c>
+      <c r="P18" s="5">
+        <v>3375.886524822695</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>3475.177304964539</v>
+      </c>
+      <c r="R18" s="5">
+        <v>3574.468085106383</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
+        <v>3673.758865248226</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1696,59 +1708,59 @@
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="C19" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G19" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K19" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="P19" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="S19" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="T19" s="7">
-        <v>0.3955555555555555</v>
+      <c r="K19" s="6">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0.7200000000000001</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="T19" s="6">
+        <v>0.74</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1781,34 +1793,34 @@
         <v>6</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N20" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O20" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R20" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S20" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="T20" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1816,59 +1828,59 @@
       <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="C21" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G21" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K21" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="P21" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="R21" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="S21" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="T21" s="7">
-        <v>0.3955555555555555</v>
+      <c r="K21" s="6">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0.7200000000000001</v>
+      </c>
+      <c r="S21" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="T21" s="6">
+        <v>0.74</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1878,59 +1890,59 @@
       <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>44</v>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1938,59 +1950,59 @@
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="6">
-        <v>1588.652482269503</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1588.652482269503</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1776.201733648542</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1963.75098502758</v>
-      </c>
-      <c r="H23" s="6">
-        <v>2151.300236406619</v>
-      </c>
-      <c r="I23" s="6">
-        <v>2338.849487785658</v>
-      </c>
-      <c r="J23" s="6">
-        <v>2526.398739164697</v>
-      </c>
-      <c r="K23" s="6">
-        <v>2713.947990543735</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
-        <v>2901.497241922774</v>
-      </c>
-      <c r="N23" s="6">
-        <v>3089.046493301812</v>
-      </c>
-      <c r="O23" s="6">
-        <v>3276.595744680851</v>
-      </c>
-      <c r="P23" s="6">
-        <v>3375.886524822695</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>3475.177304964539</v>
-      </c>
-      <c r="R23" s="6">
-        <v>3574.468085106383</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0</v>
-      </c>
-      <c r="T23" s="6">
-        <v>3673.758865248226</v>
+      <c r="C23" s="5">
+        <v>2066.420664206642</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2066.420664206642</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2310.373103731038</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2554.325543255432</v>
+      </c>
+      <c r="H23" s="5">
+        <v>2798.277982779828</v>
+      </c>
+      <c r="I23" s="5">
+        <v>3042.230422304223</v>
+      </c>
+      <c r="J23" s="5">
+        <v>3286.182861828619</v>
+      </c>
+      <c r="K23" s="5">
+        <v>3530.135301353014</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>3774.08774087741</v>
+      </c>
+      <c r="N23" s="5">
+        <v>4018.040180401804</v>
+      </c>
+      <c r="O23" s="5">
+        <v>4261.9926199262</v>
+      </c>
+      <c r="P23" s="5">
+        <v>4391.143911439115</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>4520.29520295203</v>
+      </c>
+      <c r="R23" s="5">
+        <v>4649.446494464945</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
+        <v>4778.59778597786</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1998,58 +2010,58 @@
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="C24" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G24" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="6">
         <v>0.66</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="6">
         <v>0.68</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="6">
         <v>0.7200000000000001</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="6">
         <v>0.74</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T24" s="6">
         <v>0.74</v>
       </c>
     </row>
@@ -2118,58 +2130,58 @@
       <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="C26" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G26" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="6">
         <v>0.66</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="6">
         <v>0.68</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="6">
         <v>0.7200000000000001</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="6">
         <v>0.74</v>
       </c>
-      <c r="T26" s="7">
+      <c r="T26" s="6">
         <v>0.74</v>
       </c>
     </row>
@@ -2189,50 +2201,50 @@
       <c r="E27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>45</v>
+      <c r="F27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2240,59 +2252,59 @@
       <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>2066.420664206642</v>
-      </c>
-      <c r="G28" s="6">
-        <v>2066.420664206642</v>
-      </c>
-      <c r="H28" s="6">
-        <v>2310.373103731038</v>
-      </c>
-      <c r="I28" s="6">
-        <v>2554.325543255432</v>
-      </c>
-      <c r="J28" s="6">
-        <v>2798.277982779828</v>
-      </c>
-      <c r="K28" s="6">
-        <v>3042.230422304223</v>
-      </c>
-      <c r="L28" s="6">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6">
-        <v>3286.182861828619</v>
-      </c>
-      <c r="N28" s="6">
-        <v>3530.135301353014</v>
-      </c>
-      <c r="O28" s="6">
-        <v>3774.08774087741</v>
-      </c>
-      <c r="P28" s="6">
-        <v>4018.040180401804</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>4261.9926199262</v>
-      </c>
-      <c r="R28" s="6">
-        <v>4391.143911439115</v>
-      </c>
-      <c r="S28" s="6">
-        <v>0</v>
-      </c>
-      <c r="T28" s="6">
-        <v>4520.29520295203</v>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1776.201733648542</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1963.75098502758</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2151.300236406619</v>
+      </c>
+      <c r="I28" s="5">
+        <v>2338.849487785658</v>
+      </c>
+      <c r="J28" s="5">
+        <v>2526.398739164697</v>
+      </c>
+      <c r="K28" s="5">
+        <v>2713.947990543735</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>2901.497241922774</v>
+      </c>
+      <c r="N28" s="5">
+        <v>3089.046493301812</v>
+      </c>
+      <c r="O28" s="5">
+        <v>3276.595744680851</v>
+      </c>
+      <c r="P28" s="5">
+        <v>3375.886524822695</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>3475.177304964539</v>
+      </c>
+      <c r="R28" s="5">
+        <v>3574.468085106383</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0</v>
+      </c>
+      <c r="T28" s="5">
+        <v>3673.758865248226</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2300,59 +2312,59 @@
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="I29" s="7">
+      <c r="C29" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G29" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J29" s="7">
+      <c r="H29" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K29" s="7">
+      <c r="I29" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L29" s="7">
+      <c r="J29" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M29" s="7">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="N29" s="7">
+      <c r="K29" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O29" s="7">
+      <c r="L29" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P29" s="7">
+      <c r="M29" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="N29" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="O29" s="6">
         <v>0.66</v>
       </c>
-      <c r="R29" s="7">
+      <c r="P29" s="6">
         <v>0.68</v>
       </c>
-      <c r="S29" s="7">
+      <c r="Q29" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="T29" s="7">
-        <v>0.7000000000000001</v>
+      <c r="R29" s="6">
+        <v>0.7200000000000001</v>
+      </c>
+      <c r="S29" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="T29" s="6">
+        <v>0.74</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2370,49 +2382,49 @@
         <v>2</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J30" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K30" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L30" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M30" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N30" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O30" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P30" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q30" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R30" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S30" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T30" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2420,59 +2432,59 @@
       <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="I31" s="7">
+      <c r="C31" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G31" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J31" s="7">
+      <c r="H31" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K31" s="7">
+      <c r="I31" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L31" s="7">
+      <c r="J31" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M31" s="7">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="N31" s="7">
+      <c r="K31" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O31" s="7">
+      <c r="L31" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P31" s="7">
+      <c r="M31" s="6">
+        <v>0.5844444444444445</v>
+      </c>
+      <c r="N31" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="O31" s="6">
         <v>0.66</v>
       </c>
-      <c r="R31" s="7">
+      <c r="P31" s="6">
         <v>0.68</v>
       </c>
-      <c r="S31" s="7">
+      <c r="Q31" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="T31" s="7">
-        <v>0.7000000000000001</v>
+      <c r="R31" s="6">
+        <v>0.7200000000000001</v>
+      </c>
+      <c r="S31" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="T31" s="6">
+        <v>0.74</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2482,14 +2494,14 @@
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>45</v>
+      <c r="C32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>45</v>
@@ -2542,59 +2554,59 @@
       <c r="B33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
+        <v>1588.652482269503</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1588.652482269503</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="D33" s="6">
+      <c r="G33" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="H33" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="G33" s="6">
+      <c r="I33" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="H33" s="6">
+      <c r="J33" s="5">
         <v>2798.277982779828</v>
       </c>
-      <c r="I33" s="6">
+      <c r="K33" s="5">
         <v>3042.230422304223</v>
       </c>
-      <c r="J33" s="6">
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
         <v>3286.182861828619</v>
       </c>
-      <c r="K33" s="6">
+      <c r="N33" s="5">
         <v>3530.135301353014</v>
       </c>
-      <c r="L33" s="6">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
+      <c r="O33" s="5">
         <v>3774.08774087741</v>
       </c>
-      <c r="N33" s="6">
-        <v>4018.040180401805</v>
-      </c>
-      <c r="O33" s="6">
+      <c r="P33" s="5">
+        <v>4018.040180401804</v>
+      </c>
+      <c r="Q33" s="5">
         <v>4261.9926199262</v>
       </c>
-      <c r="P33" s="6">
+      <c r="R33" s="5">
         <v>4391.143911439115</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="S33" s="5">
+        <v>0</v>
+      </c>
+      <c r="T33" s="5">
         <v>4520.29520295203</v>
-      </c>
-      <c r="R33" s="6">
-        <v>4649.446494464945</v>
-      </c>
-      <c r="S33" s="6">
-        <v>0</v>
-      </c>
-      <c r="T33" s="6">
-        <v>4778.59778597786</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2602,59 +2614,59 @@
       <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="C34" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I34" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H34" s="7">
+      <c r="J34" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I34" s="7">
+      <c r="K34" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J34" s="7">
+      <c r="L34" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K34" s="7">
+      <c r="M34" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N34" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L34" s="7">
+      <c r="O34" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M34" s="7">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="N34" s="7">
+      <c r="P34" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O34" s="7">
+      <c r="Q34" s="6">
         <v>0.66</v>
       </c>
-      <c r="P34" s="7">
+      <c r="R34" s="6">
         <v>0.68</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="S34" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="R34" s="7">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="S34" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="T34" s="7">
-        <v>0.74</v>
+      <c r="T34" s="6">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2672,49 +2684,49 @@
         <v>2</v>
       </c>
       <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
         <v>2</v>
       </c>
-      <c r="G35" s="2">
+      <c r="I35" s="2">
         <v>3</v>
       </c>
-      <c r="H35" s="2">
+      <c r="J35" s="2">
         <v>4</v>
       </c>
-      <c r="I35" s="2">
+      <c r="K35" s="2">
         <v>5</v>
       </c>
-      <c r="J35" s="2">
+      <c r="L35" s="2">
         <v>6</v>
       </c>
-      <c r="K35" s="2">
+      <c r="M35" s="2">
+        <v>6</v>
+      </c>
+      <c r="N35" s="2">
         <v>7</v>
       </c>
-      <c r="L35" s="2">
+      <c r="O35" s="2">
         <v>8</v>
       </c>
-      <c r="M35" s="2">
-        <v>8</v>
-      </c>
-      <c r="N35" s="2">
+      <c r="P35" s="2">
         <v>9</v>
       </c>
-      <c r="O35" s="2">
+      <c r="Q35" s="2">
         <v>10</v>
       </c>
-      <c r="P35" s="2">
+      <c r="R35" s="2">
         <v>11</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="S35" s="2">
         <v>12</v>
       </c>
-      <c r="R35" s="2">
-        <v>13</v>
-      </c>
-      <c r="S35" s="2">
-        <v>14</v>
-      </c>
       <c r="T35" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2722,59 +2734,59 @@
       <c r="B36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D36" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="C36" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I36" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H36" s="7">
+      <c r="J36" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I36" s="7">
+      <c r="K36" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J36" s="7">
+      <c r="L36" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K36" s="7">
+      <c r="M36" s="6">
+        <v>0.5088888888888889</v>
+      </c>
+      <c r="N36" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L36" s="7">
+      <c r="O36" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M36" s="7">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="N36" s="7">
+      <c r="P36" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O36" s="7">
+      <c r="Q36" s="6">
         <v>0.66</v>
       </c>
-      <c r="P36" s="7">
+      <c r="R36" s="6">
         <v>0.68</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="S36" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="R36" s="7">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="S36" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="T36" s="7">
-        <v>0.74</v>
+      <c r="T36" s="6">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2799,11 +2811,11 @@
       <c r="G37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>45</v>
+      <c r="H37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>45</v>
@@ -2844,59 +2856,59 @@
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="6">
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
         <v>1776.201733648542</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>1963.75098502758</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
+        <v>2151.300236406619</v>
+      </c>
+      <c r="I38" s="5">
+        <v>2338.849487785658</v>
+      </c>
+      <c r="J38" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="I38" s="6">
+      <c r="K38" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="J38" s="6">
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="K38" s="6">
+      <c r="N38" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="L38" s="6">
-        <v>0</v>
-      </c>
-      <c r="M38" s="6">
+      <c r="O38" s="5">
         <v>2798.277982779828</v>
       </c>
-      <c r="N38" s="6">
+      <c r="P38" s="5">
         <v>3042.230422304223</v>
       </c>
-      <c r="O38" s="6">
+      <c r="Q38" s="5">
         <v>3286.182861828619</v>
       </c>
-      <c r="P38" s="6">
+      <c r="R38" s="5">
         <v>3530.135301353014</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="S38" s="5">
+        <v>0</v>
+      </c>
+      <c r="T38" s="5">
         <v>3774.08774087741</v>
-      </c>
-      <c r="R38" s="6">
-        <v>4018.040180401804</v>
-      </c>
-      <c r="S38" s="6">
-        <v>0</v>
-      </c>
-      <c r="T38" s="6">
-        <v>4261.9926199262</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -2904,59 +2916,59 @@
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E39" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F39" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G39" s="7">
+      <c r="C39" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G39" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H39" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="J39" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="K39" s="7">
+      <c r="H39" s="6">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="N39" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="L39" s="7">
+      <c r="O39" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="M39" s="7">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="N39" s="7">
+      <c r="P39" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="O39" s="7">
+      <c r="Q39" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="P39" s="7">
+      <c r="R39" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="S39" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="R39" s="7">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="S39" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="T39" s="7">
-        <v>0.66</v>
+      <c r="T39" s="6">
+        <v>0.5844444444444445</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -2980,43 +2992,43 @@
         <v>3</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I40" s="2">
+        <v>5</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
         <v>1</v>
       </c>
-      <c r="J40" s="2">
+      <c r="L40" s="2">
         <v>2</v>
       </c>
-      <c r="K40" s="2">
+      <c r="M40" s="2">
+        <v>2</v>
+      </c>
+      <c r="N40" s="2">
         <v>3</v>
       </c>
-      <c r="L40" s="2">
+      <c r="O40" s="2">
         <v>4</v>
       </c>
-      <c r="M40" s="2">
-        <v>4</v>
-      </c>
-      <c r="N40" s="2">
+      <c r="P40" s="2">
         <v>5</v>
       </c>
-      <c r="O40" s="2">
+      <c r="Q40" s="2">
         <v>6</v>
       </c>
-      <c r="P40" s="2">
+      <c r="R40" s="2">
         <v>7</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="S40" s="2">
         <v>8</v>
       </c>
-      <c r="R40" s="2">
-        <v>9</v>
-      </c>
-      <c r="S40" s="2">
-        <v>10</v>
-      </c>
       <c r="T40" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3024,59 +3036,59 @@
       <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D41" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E41" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G41" s="7">
+      <c r="C41" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G41" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H41" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="J41" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="K41" s="7">
+      <c r="H41" s="6">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="N41" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="L41" s="7">
+      <c r="O41" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="M41" s="7">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="N41" s="7">
+      <c r="P41" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="O41" s="7">
+      <c r="Q41" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="P41" s="7">
+      <c r="R41" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="S41" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="R41" s="7">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="S41" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="T41" s="7">
-        <v>0.66</v>
+      <c r="T41" s="6">
+        <v>0.5844444444444445</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3089,56 +3101,56 @@
       <c r="C42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>45</v>
+      <c r="D42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T42" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3146,59 +3158,59 @@
       <c r="B43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="D43" s="6">
-        <v>2066.420664206642</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6">
-        <v>2066.420664206642</v>
-      </c>
-      <c r="G43" s="6">
-        <v>2310.373103731038</v>
-      </c>
-      <c r="H43" s="6">
-        <v>2554.325543255432</v>
-      </c>
-      <c r="I43" s="6">
-        <v>2798.277982779828</v>
-      </c>
-      <c r="J43" s="6">
-        <v>3042.230422304223</v>
-      </c>
-      <c r="K43" s="6">
-        <v>3286.182861828619</v>
-      </c>
-      <c r="L43" s="6">
-        <v>0</v>
-      </c>
-      <c r="M43" s="6">
-        <v>3530.135301353014</v>
-      </c>
-      <c r="N43" s="6">
-        <v>3774.08774087741</v>
-      </c>
-      <c r="O43" s="6">
-        <v>4018.040180401804</v>
-      </c>
-      <c r="P43" s="6">
-        <v>4261.9926199262</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>4391.143911439115</v>
-      </c>
-      <c r="R43" s="6">
-        <v>4520.29520295203</v>
-      </c>
-      <c r="S43" s="6">
-        <v>0</v>
-      </c>
-      <c r="T43" s="6">
-        <v>4649.446494464945</v>
+      <c r="D43" s="5">
+        <v>1588.652482269503</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1776.201733648542</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1030.011342386806</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1030.011342386806</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1151.609903640804</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1273.208464894802</v>
+      </c>
+      <c r="K43" s="5">
+        <v>1394.8070261488</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <v>1516.405587402798</v>
+      </c>
+      <c r="N43" s="5">
+        <v>1638.004148656796</v>
+      </c>
+      <c r="O43" s="5">
+        <v>1759.602709910793</v>
+      </c>
+      <c r="P43" s="5">
+        <v>1881.201271164792</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>2002.799832418789</v>
+      </c>
+      <c r="R43" s="5">
+        <v>2124.398393672787</v>
+      </c>
+      <c r="S43" s="5">
+        <v>0</v>
+      </c>
+      <c r="T43" s="5">
+        <v>2188.774102571963</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3206,59 +3218,59 @@
       <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D44" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E44" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="F44" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="H44" s="7">
+      <c r="C44" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="J44" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="I44" s="7">
+      <c r="K44" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="J44" s="7">
+      <c r="L44" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="K44" s="7">
+      <c r="M44" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="N44" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="L44" s="7">
+      <c r="O44" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="M44" s="7">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="N44" s="7">
+      <c r="P44" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="O44" s="7">
+      <c r="Q44" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="P44" s="7">
+      <c r="R44" s="6">
         <v>0.66</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="S44" s="6">
         <v>0.68</v>
       </c>
-      <c r="R44" s="7">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="S44" s="7">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="T44" s="7">
-        <v>0.7200000000000001</v>
+      <c r="T44" s="6">
+        <v>0.68</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3270,55 +3282,55 @@
         <v>0</v>
       </c>
       <c r="D45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
         <v>1</v>
       </c>
-      <c r="F45" s="2">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2">
+      <c r="I45" s="2">
         <v>2</v>
       </c>
-      <c r="H45" s="2">
+      <c r="J45" s="2">
         <v>3</v>
       </c>
-      <c r="I45" s="2">
+      <c r="K45" s="2">
         <v>4</v>
       </c>
-      <c r="J45" s="2">
+      <c r="L45" s="2">
         <v>5</v>
       </c>
-      <c r="K45" s="2">
+      <c r="M45" s="2">
+        <v>5</v>
+      </c>
+      <c r="N45" s="2">
         <v>6</v>
       </c>
-      <c r="L45" s="2">
+      <c r="O45" s="2">
         <v>7</v>
       </c>
-      <c r="M45" s="2">
-        <v>7</v>
-      </c>
-      <c r="N45" s="2">
+      <c r="P45" s="2">
         <v>8</v>
       </c>
-      <c r="O45" s="2">
+      <c r="Q45" s="2">
         <v>9</v>
       </c>
-      <c r="P45" s="2">
+      <c r="R45" s="2">
         <v>10</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="S45" s="2">
         <v>11</v>
       </c>
-      <c r="R45" s="2">
-        <v>12</v>
-      </c>
-      <c r="S45" s="2">
-        <v>13</v>
-      </c>
       <c r="T45" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3326,59 +3338,59 @@
       <c r="B46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D46" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E46" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="F46" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G46" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="H46" s="7">
+      <c r="C46" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="J46" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="I46" s="7">
+      <c r="K46" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="J46" s="7">
+      <c r="L46" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="K46" s="7">
+      <c r="M46" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="N46" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="L46" s="7">
+      <c r="O46" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="M46" s="7">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="N46" s="7">
+      <c r="P46" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="O46" s="7">
+      <c r="Q46" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="P46" s="7">
+      <c r="R46" s="6">
         <v>0.66</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="S46" s="6">
         <v>0.68</v>
       </c>
-      <c r="R46" s="7">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="S46" s="7">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="T46" s="7">
-        <v>0.7200000000000001</v>
+      <c r="T46" s="6">
+        <v>0.68</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3394,8 +3406,8 @@
       <c r="D47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>44</v>
+      <c r="E47" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>45</v>
@@ -3427,20 +3439,20 @@
       <c r="O47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T47" s="5" t="s">
-        <v>46</v>
+      <c r="P47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3448,59 +3460,59 @@
       <c r="B48" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-      <c r="F48" s="6">
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="5">
         <v>2798.277982779828</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <v>3042.230422304223</v>
       </c>
-      <c r="L48" s="6">
-        <v>0</v>
-      </c>
-      <c r="M48" s="6">
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
         <v>3286.182861828619</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N48" s="5">
         <v>3530.135301353014</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="5">
         <v>3774.08774087741</v>
       </c>
-      <c r="P48" s="6">
-        <v>1529.601893792821</v>
-      </c>
-      <c r="Q48" s="6">
-        <v>1529.601893792821</v>
-      </c>
-      <c r="R48" s="6">
-        <v>1710.179895143362</v>
-      </c>
-      <c r="S48" s="6">
-        <v>0</v>
-      </c>
-      <c r="T48" s="6">
-        <v>1890.757896493903</v>
+      <c r="P48" s="5">
+        <v>4018.040180401804</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>4261.9926199262</v>
+      </c>
+      <c r="R48" s="5">
+        <v>4391.143911439115</v>
+      </c>
+      <c r="S48" s="5">
+        <v>0</v>
+      </c>
+      <c r="T48" s="5">
+        <v>4520.29520295203</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3508,59 +3520,59 @@
       <c r="B49" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D49" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E49" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="I49" s="7">
+      <c r="C49" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I49" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P49" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="Q49" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="R49" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="S49" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="T49" s="7">
-        <v>0.3955555555555555</v>
+      <c r="P49" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="R49" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="S49" s="6">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="T49" s="6">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3575,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2">
         <v>0</v>
@@ -3608,19 +3620,19 @@
         <v>8</v>
       </c>
       <c r="P50" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q50" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R50" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="S50" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="T50" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -3628,59 +3640,59 @@
       <c r="B51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D51" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E51" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="I51" s="7">
+      <c r="C51" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I51" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P51" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="Q51" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="R51" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="S51" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="T51" s="7">
-        <v>0.3955555555555555</v>
+      <c r="P51" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="R51" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="S51" s="6">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="T51" s="6">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -3750,58 +3762,58 @@
       <c r="B53" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="E53" s="6">
-        <v>0</v>
-      </c>
-      <c r="F53" s="6">
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="5">
         <v>2798.277982779828</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="5">
         <v>3042.230422304223</v>
       </c>
-      <c r="L53" s="6">
-        <v>0</v>
-      </c>
-      <c r="M53" s="6">
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
+      <c r="M53" s="5">
         <v>3286.182861828619</v>
       </c>
-      <c r="N53" s="6">
+      <c r="N53" s="5">
         <v>3530.135301353014</v>
       </c>
-      <c r="O53" s="6">
+      <c r="O53" s="5">
         <v>3774.08774087741</v>
       </c>
-      <c r="P53" s="6">
+      <c r="P53" s="5">
         <v>4018.040180401804</v>
       </c>
-      <c r="Q53" s="6">
+      <c r="Q53" s="5">
         <v>4261.9926199262</v>
       </c>
-      <c r="R53" s="6">
+      <c r="R53" s="5">
         <v>4391.143911439115</v>
       </c>
-      <c r="S53" s="6">
-        <v>0</v>
-      </c>
-      <c r="T53" s="6">
+      <c r="S53" s="5">
+        <v>0</v>
+      </c>
+      <c r="T53" s="5">
         <v>4520.29520295203</v>
       </c>
     </row>
@@ -3810,58 +3822,58 @@
       <c r="B54" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D54" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E54" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F54" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G54" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="I54" s="7">
+      <c r="C54" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I54" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N54" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O54" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P54" s="7">
+      <c r="P54" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="Q54" s="7">
+      <c r="Q54" s="6">
         <v>0.66</v>
       </c>
-      <c r="R54" s="7">
+      <c r="R54" s="6">
         <v>0.68</v>
       </c>
-      <c r="S54" s="7">
+      <c r="S54" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="T54" s="7">
+      <c r="T54" s="6">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -3930,58 +3942,58 @@
       <c r="B56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D56" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E56" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F56" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G56" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="I56" s="7">
+      <c r="C56" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I56" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M56" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N56" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O56" s="7">
+      <c r="O56" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P56" s="7">
+      <c r="P56" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="Q56" s="7">
+      <c r="Q56" s="6">
         <v>0.66</v>
       </c>
-      <c r="R56" s="7">
+      <c r="R56" s="6">
         <v>0.68</v>
       </c>
-      <c r="S56" s="7">
+      <c r="S56" s="6">
         <v>0.7000000000000001</v>
       </c>
-      <c r="T56" s="7">
+      <c r="T56" s="6">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -4031,20 +4043,20 @@
       <c r="O57" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P57" s="5" t="s">
+      <c r="P57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R57" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q57" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R57" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S57" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T57" s="5" t="s">
-        <v>46</v>
+      <c r="S57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4052,59 +4064,59 @@
       <c r="B58" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="E58" s="6">
-        <v>0</v>
-      </c>
-      <c r="F58" s="6">
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="5">
         <v>2798.277982779828</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="5">
         <v>3042.230422304223</v>
       </c>
-      <c r="L58" s="6">
-        <v>0</v>
-      </c>
-      <c r="M58" s="6">
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
         <v>3286.182861828619</v>
       </c>
-      <c r="N58" s="6">
+      <c r="N58" s="5">
         <v>3530.135301353014</v>
       </c>
-      <c r="O58" s="6">
+      <c r="O58" s="5">
         <v>3774.08774087741</v>
       </c>
-      <c r="P58" s="6">
+      <c r="P58" s="5">
+        <v>4018.040180401804</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>4261.9926199262</v>
+      </c>
+      <c r="R58" s="5">
         <v>1529.601893792821</v>
       </c>
-      <c r="Q58" s="6">
-        <v>1529.601893792821</v>
-      </c>
-      <c r="R58" s="6">
-        <v>1710.179895143362</v>
-      </c>
-      <c r="S58" s="6">
-        <v>0</v>
-      </c>
-      <c r="T58" s="6">
-        <v>1890.757896493903</v>
+      <c r="S58" s="5">
+        <v>0</v>
+      </c>
+      <c r="T58" s="5">
+        <v>2066.420664206642</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4112,59 +4124,59 @@
       <c r="B59" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D59" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E59" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F59" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G59" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="I59" s="7">
+      <c r="C59" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I59" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M59" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N59" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O59" s="7">
+      <c r="O59" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P59" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="Q59" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="R59" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="S59" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="T59" s="7">
-        <v>0.3955555555555555</v>
+      <c r="P59" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="R59" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="S59" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="T59" s="6">
+        <v>0.32</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4212,19 +4224,19 @@
         <v>8</v>
       </c>
       <c r="P60" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q60" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R60" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S60" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T60" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4232,59 +4244,59 @@
       <c r="B61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C61" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D61" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E61" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F61" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G61" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="I61" s="7">
+      <c r="C61" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I61" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K61" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L61" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M61" s="7">
+      <c r="M61" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="N61" s="7">
+      <c r="N61" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O61" s="7">
+      <c r="O61" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P61" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="Q61" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="R61" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="S61" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="T61" s="7">
-        <v>0.3955555555555555</v>
+      <c r="P61" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="R61" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="S61" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="T61" s="6">
+        <v>0.32</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4330,23 +4342,23 @@
       <c r="N62" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O62" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R62" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S62" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T62" s="4" t="s">
-        <v>45</v>
+      <c r="O62" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P62" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q62" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R62" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S62" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T62" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4354,59 +4366,59 @@
       <c r="B63" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>1588.652482269503</v>
       </c>
-      <c r="E63" s="6">
-        <v>0</v>
-      </c>
-      <c r="F63" s="6">
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="5">
         <v>2066.420664206642</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="5">
         <v>2310.373103731038</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="5">
         <v>2554.325543255432</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="5">
         <v>2798.277982779828</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="5">
         <v>3042.230422304223</v>
       </c>
-      <c r="L63" s="6">
-        <v>0</v>
-      </c>
-      <c r="M63" s="6">
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="5">
         <v>3286.182861828619</v>
       </c>
-      <c r="N63" s="6">
+      <c r="N63" s="5">
         <v>3530.135301353014</v>
       </c>
-      <c r="O63" s="6">
-        <v>3774.08774087741</v>
-      </c>
-      <c r="P63" s="6">
-        <v>4018.040180401804</v>
-      </c>
-      <c r="Q63" s="6">
-        <v>4261.9926199262</v>
-      </c>
-      <c r="R63" s="6">
-        <v>4391.143911439115</v>
-      </c>
-      <c r="S63" s="6">
-        <v>0</v>
-      </c>
-      <c r="T63" s="6">
-        <v>4520.29520295203</v>
+      <c r="O63" s="5">
+        <v>1030.011342386806</v>
+      </c>
+      <c r="P63" s="5">
+        <v>1529.601893792821</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>1529.601893792821</v>
+      </c>
+      <c r="R63" s="5">
+        <v>1710.179895143362</v>
+      </c>
+      <c r="S63" s="5">
+        <v>0</v>
+      </c>
+      <c r="T63" s="5">
+        <v>1890.757896493903</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -4414,59 +4426,59 @@
       <c r="B64" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D64" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E64" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="F64" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G64" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H64" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="I64" s="7">
+      <c r="C64" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I64" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M64" s="7">
+      <c r="M64" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="N64" s="7">
+      <c r="N64" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O64" s="7">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="P64" s="7">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="Q64" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="R64" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="S64" s="7">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="T64" s="7">
-        <v>0.7000000000000001</v>
+      <c r="O64" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="P64" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="R64" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="S64" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="T64" s="6">
+        <v>0.3955555555555555</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -4511,22 +4523,22 @@
         <v>7</v>
       </c>
       <c r="O65" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P65" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R65" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="S65" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T65" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -4534,59 +4546,59 @@
       <c r="B66" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C66" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D66" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E66" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="F66" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G66" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="I66" s="7">
+      <c r="C66" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="I66" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K66" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L66" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M66" s="7">
+      <c r="M66" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="N66" s="7">
+      <c r="N66" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O66" s="7">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="P66" s="7">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="Q66" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="R66" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="S66" s="7">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="T66" s="7">
-        <v>0.7000000000000001</v>
+      <c r="O66" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="P66" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="R66" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="S66" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="T66" s="6">
+        <v>0.3955555555555555</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -4596,59 +4608,59 @@
       <c r="B67" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T67" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O67" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P67" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q67" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R67" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S67" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T67" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -4656,59 +4668,59 @@
       <c r="B68" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="5">
         <v>1529.601893792821</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
+        <v>1710.179895143362</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1890.757896493903</v>
+      </c>
+      <c r="G68" s="5">
+        <v>2071.335897844445</v>
+      </c>
+      <c r="H68" s="5">
+        <v>2251.913899194986</v>
+      </c>
+      <c r="I68" s="5">
+        <v>2432.491900545528</v>
+      </c>
+      <c r="J68" s="5">
+        <v>2613.069901896069</v>
+      </c>
+      <c r="K68" s="5">
+        <v>2793.647903246611</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0</v>
+      </c>
+      <c r="M68" s="5">
+        <v>2974.225904597151</v>
+      </c>
+      <c r="N68" s="5">
+        <v>3154.803905947693</v>
+      </c>
+      <c r="O68" s="5">
+        <v>3250.404024309745</v>
+      </c>
+      <c r="P68" s="5">
+        <v>3346.004142671796</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>3441.604261033847</v>
+      </c>
+      <c r="R68" s="5">
+        <v>3537.204379395898</v>
+      </c>
+      <c r="S68" s="5">
+        <v>0</v>
+      </c>
+      <c r="T68" s="5">
         <v>1030.011342386806</v>
-      </c>
-      <c r="E68" s="6">
-        <v>0</v>
-      </c>
-      <c r="F68" s="6">
-        <v>1030.011342386806</v>
-      </c>
-      <c r="G68" s="6">
-        <v>1151.609903640804</v>
-      </c>
-      <c r="H68" s="6">
-        <v>1273.208464894802</v>
-      </c>
-      <c r="I68" s="6">
-        <v>1394.8070261488</v>
-      </c>
-      <c r="J68" s="6">
-        <v>1516.405587402798</v>
-      </c>
-      <c r="K68" s="6">
-        <v>1638.004148656796</v>
-      </c>
-      <c r="L68" s="6">
-        <v>0</v>
-      </c>
-      <c r="M68" s="6">
-        <v>1759.602709910793</v>
-      </c>
-      <c r="N68" s="6">
-        <v>1881.201271164792</v>
-      </c>
-      <c r="O68" s="6">
-        <v>1529.601893792821</v>
-      </c>
-      <c r="P68" s="6">
-        <v>1529.601893792821</v>
-      </c>
-      <c r="Q68" s="6">
-        <v>1710.179895143362</v>
-      </c>
-      <c r="R68" s="6">
-        <v>1890.757896493903</v>
-      </c>
-      <c r="S68" s="6">
-        <v>0</v>
-      </c>
-      <c r="T68" s="6">
-        <v>2071.335897844445</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -4716,59 +4728,59 @@
       <c r="B69" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D69" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E69" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="F69" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G69" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="H69" s="7">
+      <c r="C69" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="E69" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="I69" s="7">
+      <c r="F69" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="G69" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="J69" s="7">
+      <c r="H69" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="K69" s="7">
+      <c r="I69" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="L69" s="7">
+      <c r="J69" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="M69" s="7">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="N69" s="7">
+      <c r="K69" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="O69" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="P69" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="Q69" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="R69" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="S69" s="7">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="T69" s="7">
-        <v>0.4333333333333333</v>
+      <c r="L69" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="M69" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="N69" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="O69" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="P69" s="6">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>0.7200000000000001</v>
+      </c>
+      <c r="R69" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="S69" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="T69" s="6">
+        <v>0.32</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -4780,55 +4792,55 @@
         <v>1</v>
       </c>
       <c r="D70" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E70" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F70" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G70" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H70" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I70" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J70" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K70" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L70" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M70" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N70" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O70" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P70" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q70" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="R70" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S70" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="T70" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -4836,59 +4848,59 @@
       <c r="B71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D71" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E71" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="F71" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G71" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="H71" s="7">
+      <c r="C71" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="E71" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="I71" s="7">
+      <c r="F71" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="G71" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="J71" s="7">
+      <c r="H71" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="K71" s="7">
+      <c r="I71" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="L71" s="7">
+      <c r="J71" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="M71" s="7">
-        <v>0.5466666666666666</v>
-      </c>
-      <c r="N71" s="7">
+      <c r="K71" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="O71" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="P71" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="Q71" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="R71" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="S71" s="7">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="T71" s="7">
-        <v>0.4333333333333333</v>
+      <c r="L71" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="M71" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="N71" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="O71" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="P71" s="6">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>0.7200000000000001</v>
+      </c>
+      <c r="R71" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="S71" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="T71" s="6">
+        <v>0.32</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -4898,58 +4910,58 @@
       <c r="B72" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T72" s="5" t="s">
+      <c r="G72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T72" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4958,59 +4970,59 @@
       <c r="B73" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="5">
         <v>1529.601893792821</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>1710.179895143362</v>
       </c>
-      <c r="E73" s="6">
-        <v>0</v>
-      </c>
-      <c r="F73" s="6">
-        <v>1890.757896493904</v>
-      </c>
-      <c r="G73" s="6">
-        <v>2071.335897844445</v>
-      </c>
-      <c r="H73" s="6">
-        <v>2251.913899194986</v>
-      </c>
-      <c r="I73" s="6">
-        <v>2432.491900545528</v>
-      </c>
-      <c r="J73" s="6">
-        <v>2613.069901896069</v>
-      </c>
-      <c r="K73" s="6">
-        <v>2793.647903246611</v>
-      </c>
-      <c r="L73" s="6">
-        <v>0</v>
-      </c>
-      <c r="M73" s="6">
-        <v>2974.225904597151</v>
-      </c>
-      <c r="N73" s="6">
-        <v>3154.803905947693</v>
-      </c>
-      <c r="O73" s="6">
-        <v>3250.404024309745</v>
-      </c>
-      <c r="P73" s="6">
-        <v>3346.004142671796</v>
-      </c>
-      <c r="Q73" s="6">
-        <v>3441.604261033847</v>
-      </c>
-      <c r="R73" s="6">
-        <v>3537.204379395898</v>
-      </c>
-      <c r="S73" s="6">
-        <v>0</v>
-      </c>
-      <c r="T73" s="6">
-        <v>3632.80449775795</v>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="5">
+        <v>1890.757896493903</v>
+      </c>
+      <c r="G73" s="5">
+        <v>1030.011342386806</v>
+      </c>
+      <c r="H73" s="5">
+        <v>1030.011342386806</v>
+      </c>
+      <c r="I73" s="5">
+        <v>1151.609903640804</v>
+      </c>
+      <c r="J73" s="5">
+        <v>1273.208464894802</v>
+      </c>
+      <c r="K73" s="5">
+        <v>1394.8070261488</v>
+      </c>
+      <c r="L73" s="5">
+        <v>0</v>
+      </c>
+      <c r="M73" s="5">
+        <v>1516.405587402798</v>
+      </c>
+      <c r="N73" s="5">
+        <v>1638.004148656796</v>
+      </c>
+      <c r="O73" s="5">
+        <v>1759.602709910793</v>
+      </c>
+      <c r="P73" s="5">
+        <v>1881.201271164792</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>2002.799832418789</v>
+      </c>
+      <c r="R73" s="5">
+        <v>2124.398393672787</v>
+      </c>
+      <c r="S73" s="5">
+        <v>0</v>
+      </c>
+      <c r="T73" s="5">
+        <v>1529.601893792821</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5018,59 +5030,59 @@
       <c r="B74" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D74" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="E74" s="7">
+      <c r="C74" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="E74" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="J74" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="K74" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="H74" s="7">
+      <c r="L74" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="I74" s="7">
+      <c r="M74" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="N74" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="J74" s="7">
+      <c r="O74" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="K74" s="7">
+      <c r="P74" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="L74" s="7">
+      <c r="Q74" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="M74" s="7">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="N74" s="7">
+      <c r="R74" s="6">
         <v>0.66</v>
       </c>
-      <c r="O74" s="7">
+      <c r="S74" s="6">
         <v>0.68</v>
       </c>
-      <c r="P74" s="7">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="Q74" s="7">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="R74" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="S74" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="T74" s="7">
-        <v>0.76</v>
+      <c r="T74" s="6">
+        <v>0.32</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5091,46 +5103,46 @@
         <v>3</v>
       </c>
       <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2">
+        <v>2</v>
+      </c>
+      <c r="J75" s="2">
+        <v>3</v>
+      </c>
+      <c r="K75" s="2">
         <v>4</v>
       </c>
-      <c r="H75" s="2">
+      <c r="L75" s="2">
         <v>5</v>
       </c>
-      <c r="I75" s="2">
+      <c r="M75" s="2">
+        <v>5</v>
+      </c>
+      <c r="N75" s="2">
         <v>6</v>
       </c>
-      <c r="J75" s="2">
+      <c r="O75" s="2">
         <v>7</v>
       </c>
-      <c r="K75" s="2">
+      <c r="P75" s="2">
         <v>8</v>
       </c>
-      <c r="L75" s="2">
+      <c r="Q75" s="2">
         <v>9</v>
       </c>
-      <c r="M75" s="2">
-        <v>9</v>
-      </c>
-      <c r="N75" s="2">
+      <c r="R75" s="2">
         <v>10</v>
       </c>
-      <c r="O75" s="2">
+      <c r="S75" s="2">
         <v>11</v>
       </c>
-      <c r="P75" s="2">
-        <v>12</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>13</v>
-      </c>
-      <c r="R75" s="2">
-        <v>14</v>
-      </c>
-      <c r="S75" s="2">
-        <v>15</v>
-      </c>
       <c r="T75" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5138,59 +5150,59 @@
       <c r="B76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C76" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D76" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="E76" s="7">
+      <c r="C76" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="E76" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="J76" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="K76" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="H76" s="7">
+      <c r="L76" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="I76" s="7">
+      <c r="M76" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="N76" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="J76" s="7">
+      <c r="O76" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="K76" s="7">
+      <c r="P76" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="L76" s="7">
+      <c r="Q76" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="M76" s="7">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="N76" s="7">
+      <c r="R76" s="6">
         <v>0.66</v>
       </c>
-      <c r="O76" s="7">
+      <c r="S76" s="6">
         <v>0.68</v>
       </c>
-      <c r="P76" s="7">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="Q76" s="7">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="R76" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="S76" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="T76" s="7">
-        <v>0.76</v>
+      <c r="T76" s="6">
+        <v>0.32</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5200,20 +5212,20 @@
       <c r="B77" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>47</v>
+      <c r="C77" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>47</v>
@@ -5248,8 +5260,8 @@
       <c r="R77" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S77" s="9" t="s">
-        <v>48</v>
+      <c r="S77" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="T77" s="8" t="s">
         <v>47</v>
@@ -5260,59 +5272,59 @@
       <c r="B78" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="5">
+        <v>1529.601893792821</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1710.179895143362</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0</v>
+      </c>
+      <c r="F78" s="5">
+        <v>1890.757896493903</v>
+      </c>
+      <c r="G78" s="5">
+        <v>2071.335897844445</v>
+      </c>
+      <c r="H78" s="5">
         <v>1030.011342386806</v>
       </c>
-      <c r="D78" s="6">
+      <c r="I78" s="5">
         <v>1030.011342386806</v>
       </c>
-      <c r="E78" s="6">
-        <v>0</v>
-      </c>
-      <c r="F78" s="6">
+      <c r="J78" s="5">
         <v>1151.609903640804</v>
       </c>
-      <c r="G78" s="6">
+      <c r="K78" s="5">
         <v>1273.208464894802</v>
       </c>
-      <c r="H78" s="6">
+      <c r="L78" s="5">
+        <v>0</v>
+      </c>
+      <c r="M78" s="5">
         <v>1394.8070261488</v>
       </c>
-      <c r="I78" s="6">
+      <c r="N78" s="5">
         <v>1516.405587402798</v>
       </c>
-      <c r="J78" s="6">
+      <c r="O78" s="5">
         <v>1638.004148656796</v>
       </c>
-      <c r="K78" s="6">
+      <c r="P78" s="5">
         <v>1759.602709910793</v>
       </c>
-      <c r="L78" s="6">
-        <v>0</v>
-      </c>
-      <c r="M78" s="6">
+      <c r="Q78" s="5">
         <v>1881.201271164792</v>
       </c>
-      <c r="N78" s="6">
+      <c r="R78" s="5">
         <v>2002.799832418789</v>
       </c>
-      <c r="O78" s="6">
+      <c r="S78" s="5">
+        <v>0</v>
+      </c>
+      <c r="T78" s="5">
         <v>2124.398393672787</v>
-      </c>
-      <c r="P78" s="6">
-        <v>2188.774102571963</v>
-      </c>
-      <c r="Q78" s="6">
-        <v>2253.149811471138</v>
-      </c>
-      <c r="R78" s="6">
-        <v>2317.525520370314</v>
-      </c>
-      <c r="S78" s="6">
-        <v>0</v>
-      </c>
-      <c r="T78" s="6">
-        <v>1030.011342386806</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5320,59 +5332,59 @@
       <c r="B79" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C79" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D79" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E79" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F79" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G79" s="7">
+      <c r="C79" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D79" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="E79" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H79" s="7">
+      <c r="F79" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="G79" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I79" s="7">
+      <c r="H79" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="I79" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="J79" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="K79" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="L79" s="6">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="M79" s="6">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="N79" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J79" s="7">
+      <c r="O79" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K79" s="7">
+      <c r="P79" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L79" s="7">
+      <c r="Q79" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M79" s="7">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="N79" s="7">
+      <c r="R79" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O79" s="7">
+      <c r="S79" s="6">
         <v>0.66</v>
       </c>
-      <c r="P79" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="Q79" s="7">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="R79" s="7">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="S79" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="T79" s="7">
-        <v>0.32</v>
+      <c r="T79" s="6">
+        <v>0.66</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -5381,58 +5393,58 @@
         <v>42</v>
       </c>
       <c r="C80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="2">
+        <v>2</v>
+      </c>
+      <c r="E80" s="2">
+        <v>3</v>
+      </c>
+      <c r="F80" s="2">
+        <v>3</v>
+      </c>
+      <c r="G80" s="2">
+        <v>4</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2">
         <v>1</v>
       </c>
-      <c r="E80" s="2">
+      <c r="J80" s="2">
         <v>2</v>
       </c>
-      <c r="F80" s="2">
-        <v>2</v>
-      </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>3</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>4</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
+        <v>4</v>
+      </c>
+      <c r="N80" s="2">
         <v>5</v>
       </c>
-      <c r="J80" s="2">
+      <c r="O80" s="2">
         <v>6</v>
       </c>
-      <c r="K80" s="2">
+      <c r="P80" s="2">
         <v>7</v>
       </c>
-      <c r="L80" s="2">
+      <c r="Q80" s="2">
         <v>8</v>
       </c>
-      <c r="M80" s="2">
-        <v>8</v>
-      </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>9</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>10</v>
       </c>
-      <c r="P80" s="2">
-        <v>11</v>
-      </c>
-      <c r="Q80" s="2">
-        <v>12</v>
-      </c>
-      <c r="R80" s="2">
-        <v>13</v>
-      </c>
-      <c r="S80" s="2">
-        <v>0</v>
-      </c>
       <c r="T80" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -5440,59 +5452,59 @@
       <c r="B81" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C81" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D81" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E81" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="F81" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="G81" s="7">
+      <c r="C81" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="E81" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="H81" s="7">
+      <c r="F81" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="G81" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="I81" s="7">
+      <c r="H81" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="I81" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="J81" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="K81" s="6">
+        <v>0.3955555555555555</v>
+      </c>
+      <c r="L81" s="6">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="M81" s="6">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="N81" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="J81" s="7">
+      <c r="O81" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="K81" s="7">
+      <c r="P81" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="L81" s="7">
+      <c r="Q81" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="M81" s="7">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="N81" s="7">
+      <c r="R81" s="6">
         <v>0.6222222222222222</v>
       </c>
-      <c r="O81" s="7">
+      <c r="S81" s="6">
         <v>0.66</v>
       </c>
-      <c r="P81" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="Q81" s="7">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="R81" s="7">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="S81" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="T81" s="7">
-        <v>0.32</v>
+      <c r="T81" s="6">
+        <v>0.66</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -5502,59 +5514,59 @@
       <c r="B82" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L82" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M82" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q82" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="R82" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="S82" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T82" s="5" t="s">
-        <v>46</v>
+      <c r="T82" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -5562,59 +5574,59 @@
       <c r="B83" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="5">
+        <v>1030.011342386806</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1030.011342386806</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0</v>
+      </c>
+      <c r="F83" s="5">
+        <v>1151.609903640804</v>
+      </c>
+      <c r="G83" s="5">
+        <v>1273.208464894802</v>
+      </c>
+      <c r="H83" s="5">
+        <v>1394.8070261488</v>
+      </c>
+      <c r="I83" s="5">
+        <v>1516.405587402798</v>
+      </c>
+      <c r="J83" s="5">
+        <v>1638.004148656796</v>
+      </c>
+      <c r="K83" s="5">
+        <v>1759.602709910793</v>
+      </c>
+      <c r="L83" s="5">
+        <v>0</v>
+      </c>
+      <c r="M83" s="5">
+        <v>533.3333333333334</v>
+      </c>
+      <c r="N83" s="5">
+        <v>1030.011342386806</v>
+      </c>
+      <c r="O83" s="5">
+        <v>1030.011342386806</v>
+      </c>
+      <c r="P83" s="5">
+        <v>1151.609903640804</v>
+      </c>
+      <c r="Q83" s="5">
         <v>1529.601893792821</v>
       </c>
-      <c r="D83" s="6">
-        <v>1710.179895143362</v>
-      </c>
-      <c r="E83" s="6">
-        <v>0</v>
-      </c>
-      <c r="F83" s="6">
-        <v>1890.757896493904</v>
-      </c>
-      <c r="G83" s="6">
-        <v>2071.335897844445</v>
-      </c>
-      <c r="H83" s="6">
-        <v>2251.913899194986</v>
-      </c>
-      <c r="I83" s="6">
-        <v>2432.491900545528</v>
-      </c>
-      <c r="J83" s="6">
-        <v>2613.069901896069</v>
-      </c>
-      <c r="K83" s="6">
-        <v>2793.647903246611</v>
-      </c>
-      <c r="L83" s="6">
-        <v>0</v>
-      </c>
-      <c r="M83" s="6">
-        <v>2974.225904597151</v>
-      </c>
-      <c r="N83" s="6">
-        <v>3154.803905947693</v>
-      </c>
-      <c r="O83" s="6">
-        <v>3250.404024309745</v>
-      </c>
-      <c r="P83" s="6">
-        <v>3346.004142671796</v>
-      </c>
-      <c r="Q83" s="6">
-        <v>3441.604261033847</v>
-      </c>
-      <c r="R83" s="6">
-        <v>3537.204379395898</v>
-      </c>
-      <c r="S83" s="6">
-        <v>0</v>
-      </c>
-      <c r="T83" s="6">
-        <v>3632.80449775795</v>
+      <c r="R83" s="5">
+        <v>1529.601893792821</v>
+      </c>
+      <c r="S83" s="5">
+        <v>0</v>
+      </c>
+      <c r="T83" s="5">
+        <v>1030.011342386806</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -5622,59 +5634,59 @@
       <c r="B84" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C84" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D84" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="E84" s="7">
+      <c r="C84" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D84" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F84" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G84" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="F84" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="G84" s="7">
+      <c r="H84" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="H84" s="7">
+      <c r="I84" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="I84" s="7">
+      <c r="J84" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="J84" s="7">
+      <c r="K84" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="K84" s="7">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="L84" s="7">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="M84" s="7">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="N84" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="O84" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="P84" s="7">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="Q84" s="7">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="R84" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="S84" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="T84" s="7">
-        <v>0.76</v>
+      <c r="L84" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="M84" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="N84" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O84" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="P84" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="Q84" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="R84" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="S84" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="T84" s="6">
+        <v>0.32</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -5683,58 +5695,58 @@
         <v>42</v>
       </c>
       <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
         <v>1</v>
       </c>
-      <c r="D85" s="2">
+      <c r="E85" s="2">
         <v>2</v>
       </c>
-      <c r="E85" s="2">
+      <c r="F85" s="2">
+        <v>2</v>
+      </c>
+      <c r="G85" s="2">
         <v>3</v>
       </c>
-      <c r="F85" s="2">
-        <v>3</v>
-      </c>
-      <c r="G85" s="2">
+      <c r="H85" s="2">
         <v>4</v>
       </c>
-      <c r="H85" s="2">
+      <c r="I85" s="2">
         <v>5</v>
       </c>
-      <c r="I85" s="2">
+      <c r="J85" s="2">
         <v>6</v>
       </c>
-      <c r="J85" s="2">
+      <c r="K85" s="2">
         <v>7</v>
       </c>
-      <c r="K85" s="2">
-        <v>8</v>
-      </c>
       <c r="L85" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M85" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N85" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O85" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P85" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q85" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R85" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="S85" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="T85" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -5742,59 +5754,59 @@
       <c r="B86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D86" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="E86" s="7">
+      <c r="C86" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D86" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F86" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G86" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="F86" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="G86" s="7">
+      <c r="H86" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="H86" s="7">
+      <c r="I86" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="I86" s="7">
+      <c r="J86" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="J86" s="7">
+      <c r="K86" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="K86" s="7">
-        <v>0.5844444444444445</v>
-      </c>
-      <c r="L86" s="7">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="M86" s="7">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="N86" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="O86" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="P86" s="7">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="Q86" s="7">
-        <v>0.7200000000000001</v>
-      </c>
-      <c r="R86" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="S86" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="T86" s="7">
-        <v>0.76</v>
+      <c r="L86" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="M86" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="N86" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O86" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="P86" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="Q86" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="R86" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="S86" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="T86" s="6">
+        <v>0.32</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -5804,59 +5816,59 @@
       <c r="B87" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>46</v>
+      <c r="C87" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G87" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M87" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N87" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O87" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P87" s="5" t="s">
+      <c r="G87" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q87" s="5" t="s">
+      <c r="H87" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="R87" s="5" t="s">
+      <c r="I87" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="S87" s="5" t="s">
+      <c r="J87" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="T87" s="5" t="s">
+      <c r="K87" s="9" t="s">
         <v>46</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O87" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P87" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q87" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R87" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S87" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T87" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -5864,59 +5876,59 @@
       <c r="B88" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="5">
+        <v>1030.011342386806</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1030.011342386806</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0</v>
+      </c>
+      <c r="F88" s="5">
+        <v>1151.609903640804</v>
+      </c>
+      <c r="G88" s="5">
         <v>1529.601893792821</v>
       </c>
-      <c r="D88" s="6">
+      <c r="H88" s="5">
+        <v>1529.601893792821</v>
+      </c>
+      <c r="I88" s="5">
         <v>1710.179895143362</v>
       </c>
-      <c r="E88" s="6">
-        <v>0</v>
-      </c>
-      <c r="F88" s="6">
-        <v>1030.011342386806</v>
-      </c>
-      <c r="G88" s="6">
-        <v>1030.011342386806</v>
-      </c>
-      <c r="H88" s="6">
-        <v>1151.609903640804</v>
-      </c>
-      <c r="I88" s="6">
-        <v>1273.208464894802</v>
-      </c>
-      <c r="J88" s="6">
-        <v>1394.8070261488</v>
-      </c>
-      <c r="K88" s="6">
-        <v>1516.405587402798</v>
-      </c>
-      <c r="L88" s="6">
-        <v>0</v>
-      </c>
-      <c r="M88" s="6">
-        <v>1638.004148656796</v>
-      </c>
-      <c r="N88" s="6">
-        <v>1759.602709910794</v>
-      </c>
-      <c r="O88" s="6">
-        <v>1881.201271164792</v>
-      </c>
-      <c r="P88" s="6">
-        <v>1529.601893792821</v>
-      </c>
-      <c r="Q88" s="6">
-        <v>1529.601893792821</v>
-      </c>
-      <c r="R88" s="6">
-        <v>1710.179895143362</v>
-      </c>
-      <c r="S88" s="6">
-        <v>0</v>
-      </c>
-      <c r="T88" s="6">
+      <c r="J88" s="5">
         <v>1890.757896493903</v>
+      </c>
+      <c r="K88" s="5">
+        <v>2071.335897844445</v>
+      </c>
+      <c r="L88" s="5">
+        <v>0</v>
+      </c>
+      <c r="M88" s="5">
+        <v>2251.913899194986</v>
+      </c>
+      <c r="N88" s="5">
+        <v>2432.491900545528</v>
+      </c>
+      <c r="O88" s="5">
+        <v>2613.069901896069</v>
+      </c>
+      <c r="P88" s="5">
+        <v>2793.647903246611</v>
+      </c>
+      <c r="Q88" s="5">
+        <v>2974.225904597151</v>
+      </c>
+      <c r="R88" s="5">
+        <v>533.3333333333334</v>
+      </c>
+      <c r="S88" s="5">
+        <v>0</v>
+      </c>
+      <c r="T88" s="5">
+        <v>533.3333333333334</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -5924,59 +5936,59 @@
       <c r="B89" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C89" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D89" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="E89" s="7">
+      <c r="C89" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D89" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F89" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G89" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H89" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="J89" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="F89" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G89" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H89" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="I89" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="J89" s="7">
+      <c r="K89" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K89" s="7">
+      <c r="L89" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L89" s="7">
+      <c r="M89" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="N89" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M89" s="7">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="N89" s="7">
+      <c r="O89" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O89" s="7">
+      <c r="P89" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P89" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="Q89" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="R89" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="S89" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="T89" s="7">
-        <v>0.3955555555555555</v>
+      <c r="Q89" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="R89" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="S89" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="T89" s="6">
+        <v>0.32</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -5985,58 +5997,58 @@
         <v>42</v>
       </c>
       <c r="C90" s="2">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
         <v>1</v>
       </c>
-      <c r="D90" s="2">
+      <c r="E90" s="2">
         <v>2</v>
       </c>
-      <c r="E90" s="2">
+      <c r="F90" s="2">
+        <v>2</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>1</v>
+      </c>
+      <c r="I90" s="2">
+        <v>2</v>
+      </c>
+      <c r="J90" s="2">
         <v>3</v>
       </c>
-      <c r="F90" s="2">
-        <v>0</v>
-      </c>
-      <c r="G90" s="2">
+      <c r="K90" s="2">
+        <v>4</v>
+      </c>
+      <c r="L90" s="2">
+        <v>5</v>
+      </c>
+      <c r="M90" s="2">
+        <v>5</v>
+      </c>
+      <c r="N90" s="2">
+        <v>6</v>
+      </c>
+      <c r="O90" s="2">
+        <v>7</v>
+      </c>
+      <c r="P90" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>9</v>
+      </c>
+      <c r="R90" s="2">
+        <v>0</v>
+      </c>
+      <c r="S90" s="2">
         <v>1</v>
       </c>
-      <c r="H90" s="2">
-        <v>2</v>
-      </c>
-      <c r="I90" s="2">
-        <v>3</v>
-      </c>
-      <c r="J90" s="2">
-        <v>4</v>
-      </c>
-      <c r="K90" s="2">
-        <v>5</v>
-      </c>
-      <c r="L90" s="2">
-        <v>6</v>
-      </c>
-      <c r="M90" s="2">
-        <v>6</v>
-      </c>
-      <c r="N90" s="2">
-        <v>7</v>
-      </c>
-      <c r="O90" s="2">
-        <v>8</v>
-      </c>
-      <c r="P90" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="2">
+      <c r="T90" s="2">
         <v>1</v>
-      </c>
-      <c r="R90" s="2">
-        <v>2</v>
-      </c>
-      <c r="S90" s="2">
-        <v>3</v>
-      </c>
-      <c r="T90" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6044,59 +6056,59 @@
       <c r="B91" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C91" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D91" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="E91" s="7">
+      <c r="C91" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D91" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E91" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="F91" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="G91" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="H91" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="I91" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="J91" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="F91" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="G91" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H91" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="I91" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="J91" s="7">
+      <c r="K91" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="K91" s="7">
+      <c r="L91" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="L91" s="7">
+      <c r="M91" s="6">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="N91" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="M91" s="7">
-        <v>0.5088888888888889</v>
-      </c>
-      <c r="N91" s="7">
+      <c r="O91" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="O91" s="7">
+      <c r="P91" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="P91" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="Q91" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="R91" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="S91" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="T91" s="7">
-        <v>0.3955555555555555</v>
+      <c r="Q91" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="R91" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="S91" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="T91" s="6">
+        <v>0.32</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6106,59 +6118,59 @@
       <c r="B92" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G92" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J92" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K92" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L92" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M92" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N92" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O92" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P92" s="8" t="s">
-        <v>47</v>
+      <c r="G92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P92" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="Q92" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R92" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S92" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T92" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6166,59 +6178,59 @@
       <c r="B93" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="5">
         <v>1529.601893792821</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="5">
         <v>1710.179895143362</v>
       </c>
-      <c r="E93" s="6">
-        <v>0</v>
-      </c>
-      <c r="F93" s="6">
-        <v>1890.757896493904</v>
-      </c>
-      <c r="G93" s="6">
-        <v>1030.011342386806</v>
-      </c>
-      <c r="H93" s="6">
-        <v>1030.011342386806</v>
-      </c>
-      <c r="I93" s="6">
-        <v>1151.609903640804</v>
-      </c>
-      <c r="J93" s="6">
-        <v>1273.208464894802</v>
-      </c>
-      <c r="K93" s="6">
-        <v>1394.8070261488</v>
-      </c>
-      <c r="L93" s="6">
-        <v>0</v>
-      </c>
-      <c r="M93" s="6">
-        <v>1516.405587402798</v>
-      </c>
-      <c r="N93" s="6">
-        <v>1638.004148656796</v>
-      </c>
-      <c r="O93" s="6">
-        <v>1759.602709910794</v>
-      </c>
-      <c r="P93" s="6">
-        <v>1881.201271164792</v>
-      </c>
-      <c r="Q93" s="6">
-        <v>533.3333333333334</v>
-      </c>
-      <c r="R93" s="6">
-        <v>533.3333333333334</v>
-      </c>
-      <c r="S93" s="6">
-        <v>0</v>
-      </c>
-      <c r="T93" s="6">
-        <v>596.2962962962963</v>
+      <c r="E93" s="5">
+        <v>0</v>
+      </c>
+      <c r="F93" s="5">
+        <v>1890.757896493903</v>
+      </c>
+      <c r="G93" s="5">
+        <v>2071.335897844445</v>
+      </c>
+      <c r="H93" s="5">
+        <v>2251.913899194986</v>
+      </c>
+      <c r="I93" s="5">
+        <v>2432.491900545528</v>
+      </c>
+      <c r="J93" s="5">
+        <v>2613.069901896069</v>
+      </c>
+      <c r="K93" s="5">
+        <v>2793.647903246611</v>
+      </c>
+      <c r="L93" s="5">
+        <v>0</v>
+      </c>
+      <c r="M93" s="5">
+        <v>2974.225904597151</v>
+      </c>
+      <c r="N93" s="5">
+        <v>3154.803905947693</v>
+      </c>
+      <c r="O93" s="5">
+        <v>3250.404024309745</v>
+      </c>
+      <c r="P93" s="5">
+        <v>3346.004142671796</v>
+      </c>
+      <c r="Q93" s="5">
+        <v>3441.604261033847</v>
+      </c>
+      <c r="R93" s="5">
+        <v>3537.204379395898</v>
+      </c>
+      <c r="S93" s="5">
+        <v>0</v>
+      </c>
+      <c r="T93" s="5">
+        <v>3632.80449775795</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6226,59 +6238,59 @@
       <c r="B94" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C94" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D94" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="E94" s="7">
+      <c r="C94" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D94" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="E94" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="G94" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H94" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="I94" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="J94" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="K94" s="7">
+      <c r="G94" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="L94" s="7">
+      <c r="H94" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="M94" s="7">
-        <v>0.4711111111111111</v>
-      </c>
-      <c r="N94" s="7">
+      <c r="I94" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="O94" s="7">
+      <c r="J94" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="P94" s="7">
+      <c r="K94" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="Q94" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="R94" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="S94" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="T94" s="7">
-        <v>0.3577777777777778</v>
+      <c r="L94" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="M94" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="N94" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="O94" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="P94" s="6">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="Q94" s="6">
+        <v>0.7200000000000001</v>
+      </c>
+      <c r="R94" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="S94" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="T94" s="6">
+        <v>0.76</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6299,46 +6311,46 @@
         <v>3</v>
       </c>
       <c r="G95" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H95" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I95" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J95" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K95" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L95" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M95" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N95" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O95" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P95" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q95" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R95" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S95" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T95" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6346,59 +6358,59 @@
       <c r="B96" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C96" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D96" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="E96" s="7">
+      <c r="C96" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D96" s="6">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="E96" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="6">
         <v>0.3955555555555555</v>
       </c>
-      <c r="G96" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="H96" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="I96" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="J96" s="7">
-        <v>0.3955555555555555</v>
-      </c>
-      <c r="K96" s="7">
+      <c r="G96" s="6">
         <v>0.4333333333333333</v>
       </c>
-      <c r="L96" s="7">
+      <c r="H96" s="6">
         <v>0.4711111111111111</v>
       </c>
-      <c r="M96" s="7">
-        <v>0.4711111111111111</v>
-      </c>
-      <c r="N96" s="7">
+      <c r="I96" s="6">
         <v>0.5088888888888889</v>
       </c>
-      <c r="O96" s="7">
+      <c r="J96" s="6">
         <v>0.5466666666666666</v>
       </c>
-      <c r="P96" s="7">
+      <c r="K96" s="6">
         <v>0.5844444444444445</v>
       </c>
-      <c r="Q96" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="R96" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="S96" s="7">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="T96" s="7">
-        <v>0.3577777777777778</v>
+      <c r="L96" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="M96" s="6">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="N96" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="O96" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="P96" s="6">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="Q96" s="6">
+        <v>0.7200000000000001</v>
+      </c>
+      <c r="R96" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="S96" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="T96" s="6">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
